--- a/Datos/Database by set/Set with text box/Xlsx sets/Arena League 2006 (PAL06).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Arena League 2006 (PAL06).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,245 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Castigate</t>
+          <t>('Castigate', ['{W}{B}', 'Sorcery', 'Target opponent reveals their hand. You choose a nonland card from it and exile that card.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{W}{B}</t>
+          <t>('Coiling Oracle', ['{G}{U}', 'Creature — Snake Elf Druid', 'When Coiling Oracle enters the battlefield, reveal the top card of your library. If it’s a land card, put it onto the battlefield. Otherwise, put that card into your hand.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Target opponent reveals their hand. You choose a nonland card from it and exile that card.</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Coiling Oracle</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{G}{U}</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Creature — Snake Elf Druid</t>
+          <t>('Surging Flame', ['{1}{R}', 'Instant', 'Ripple 4 (When you cast this spell, you may reveal the top four cards of your library. You may cast spells with the same name as this spell from among those cards without paying their mana costs. Put the rest on the bottom of your library.)', 'Surging Flame deals 2 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>When Coiling Oracle enters the battlefield, reveal the top card of your library. If it’s a land card, put it onto the battlefield. Otherwise, put that card into your hand.</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Basic Land — Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>({T}: Add {G}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Basic Land — Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>({T}: Add {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Basic Land — Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>({T}: Add {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Basic Land — Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>({T}: Add {W}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Surging Flame</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ripple 4 (When you cast this spell, you may reveal the top four cards of your library. You may cast spells with the same name as this spell from among those cards without paying their mana costs. Put the rest on the bottom of your library.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Surging Flame deals 2 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Basic Land — Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>({T}: Add {B}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Wee Dragonauts</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{1}{U}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Creature — Faerie Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Whenever you cast an instant or sorcery spell, Wee Dragonauts gets +2/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1/3</t>
+          <t>('Wee Dragonauts', ['{1}{U}{R}', 'Creature — Faerie Wizard', 'Flying', 'Whenever you cast an instant or sorcery spell, Wee Dragonauts gets +2/+0 until end of turn.', '1/3'])</t>
         </is>
       </c>
     </row>
